--- a/data/SupportPageData.xlsx
+++ b/data/SupportPageData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashrafmahmoud/Documents/ITI/9 Months/Core courses/Data Visualization/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashrafmahmoud/Documents/ITI/9 Months/Core courses/Data Visualization/Project/Story-of-Palestine-Dashboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF74558B-D064-234E-81BA-899E9D17AD79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76D8FA6A-E387-4F40-9EBA-30E66E35EA52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{DA82F47E-9593-7045-8AD3-0C2B15578C02}"/>
   </bookViews>
@@ -71,9 +71,6 @@
     <t>https://www.unicef.org/</t>
   </si>
   <si>
-    <t>./SupportPage/UnicefLogo.png</t>
-  </si>
-  <si>
     <t>Unrwa</t>
   </si>
   <si>
@@ -89,9 +86,6 @@
     <t>https://www.unrwa.org/</t>
   </si>
   <si>
-    <t>./SupportPage/UnrwaLogo.png</t>
-  </si>
-  <si>
     <t>World Food Programme</t>
   </si>
   <si>
@@ -107,9 +101,6 @@
     <t>https://www.wfp.org/</t>
   </si>
   <si>
-    <t>./SupportPage/WorldFoodProgrammeLogo.png</t>
-  </si>
-  <si>
     <t>International Committee of the Red Cross</t>
   </si>
   <si>
@@ -122,9 +113,6 @@
     <t>https://www.icrc.org/</t>
   </si>
   <si>
-    <t>./SupportPage/RedCrossLogo.png</t>
-  </si>
-  <si>
     <t>Zakat Foundation of America</t>
   </si>
   <si>
@@ -137,9 +125,6 @@
     <t>https://www.zakat.org/</t>
   </si>
   <si>
-    <t>./SupportPage/ZakatFoundationLogo.png</t>
-  </si>
-  <si>
     <t>Palestinian Red Crescent</t>
   </si>
   <si>
@@ -152,9 +137,6 @@
     <t>https://www.palestinercs.org/en</t>
   </si>
   <si>
-    <t>./SupportPage/prc-logo.png</t>
-  </si>
-  <si>
     <t>Egyptian Red Crescent</t>
   </si>
   <si>
@@ -167,9 +149,6 @@
     <t>https://www.egyptianrc.org/</t>
   </si>
   <si>
-    <t>./SupportPage/EgyptianRedCrescentLogo.png</t>
-  </si>
-  <si>
     <t>Egyptian Food Bank</t>
   </si>
   <si>
@@ -185,9 +164,6 @@
     <t>https://www.efb.eg/</t>
   </si>
   <si>
-    <t>./SupportPage/EgyptianFoodBankLogo.jpg</t>
-  </si>
-  <si>
     <t>Mersal</t>
   </si>
   <si>
@@ -203,9 +179,6 @@
     <t>https://www.mersal-ngo.org/</t>
   </si>
   <si>
-    <t>./SupportPage/MersalLogo.jpg</t>
-  </si>
-  <si>
     <t>image</t>
   </si>
   <si>
@@ -222,9 +195,6 @@
   </si>
   <si>
     <t>https://www.krcs.org.kw/</t>
-  </si>
-  <si>
-    <t>./SupportPage/KuwaitiRedCrescentLogo.png</t>
   </si>
   <si>
     <t>Call For a Ceasefire</t>
@@ -346,6 +316,36 @@
   </si>
   <si>
     <t>./SupportPage/boycott.jpeg</t>
+  </si>
+  <si>
+    <t>UnicefLogo.png</t>
+  </si>
+  <si>
+    <t>UnrwaLogo.png</t>
+  </si>
+  <si>
+    <t>WorldFoodProgrammeLogo.png</t>
+  </si>
+  <si>
+    <t>RedCrossLogo.png</t>
+  </si>
+  <si>
+    <t>ZakatFoundationLogo.png</t>
+  </si>
+  <si>
+    <t>prc-logo.png</t>
+  </si>
+  <si>
+    <t>KuwaitiRedCrescentLogo.png</t>
+  </si>
+  <si>
+    <t>EgyptianRedCrescentLogo.png</t>
+  </si>
+  <si>
+    <t>EgyptianFoodBankLogo.jpg</t>
+  </si>
+  <si>
+    <t>MersalLogo.jpg</t>
   </si>
 </sst>
 </file>
@@ -746,8 +746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5978B93A-5D86-9C4F-93AD-00311E57D08A}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C3" zoomScale="176" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -782,7 +782,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="102" x14ac:dyDescent="0.2">
@@ -802,275 +802,275 @@
         <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>11</v>
+        <v>83</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="D4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>28</v>
+        <v>86</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>43</v>
+        <v>90</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/data/SupportPageData.xlsx
+++ b/data/SupportPageData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashrafmahmoud/Documents/ITI/9 Months/Core courses/Data Visualization/Project/Story-of-Palestine-Dashboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76D8FA6A-E387-4F40-9EBA-30E66E35EA52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{666264C8-DD7B-FC40-BE27-DE07E7F99F63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{DA82F47E-9593-7045-8AD3-0C2B15578C02}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t>organization</t>
   </si>
@@ -101,18 +101,6 @@
     <t>https://www.wfp.org/</t>
   </si>
   <si>
-    <t>International Committee of the Red Cross</t>
-  </si>
-  <si>
-    <t>The ICRC operates worldwide, helping people affected by conflict and armed violence and promoting the laws that protect victims of war.</t>
-  </si>
-  <si>
-    <t>https://www.icrc.org/en/donate/gaza-is-powerless</t>
-  </si>
-  <si>
-    <t>https://www.icrc.org/</t>
-  </si>
-  <si>
     <t>Zakat Foundation of America</t>
   </si>
   <si>
@@ -195,51 +183,6 @@
   </si>
   <si>
     <t>https://www.krcs.org.kw/</t>
-  </si>
-  <si>
-    <t>Call For a Ceasefire</t>
-  </si>
-  <si>
-    <t>Call and Email your representative in the congress and demand a ceasefire. Lives can be saved in Gaza just by putting enough pressure on Politicians that in turn put pressure on Israel to stop this massacre.</t>
-  </si>
-  <si>
-    <t>https://act.uscpr.org/a/callforgaza</t>
-  </si>
-  <si>
-    <t>Go To Protests</t>
-  </si>
-  <si>
-    <t>Expressing solidarity with Palestine through participation in protests, marches, rallies, and vigils encourages both ordinary citizens and policymakers to give greater attention and gravity to the ongoing massacre.</t>
-  </si>
-  <si>
-    <t>https://uscpr.org/oct-2023-protests/</t>
-  </si>
-  <si>
-    <t>Spread The Word</t>
-  </si>
-  <si>
-    <t>Amplify the voices of those shining a light on the human rights abuses being committed by the IDF against the people of Gaza; otherwise, no one will know anything to stop them. Don't hesitate to share this website and engage in debates to make clear of the truth.</t>
-  </si>
-  <si>
-    <t>https://twitter.com/intent/tweet?url=${link}&amp;text=${text}</t>
-  </si>
-  <si>
-    <t>Boycott</t>
-  </si>
-  <si>
-    <t>You could contribute in restoring peace to Palestine by pressuring Israel to comply with international humanitarian law by boycotting products that support the ongoing genocide.</t>
-  </si>
-  <si>
-    <t>https://boycott.thewitness.news/</t>
-  </si>
-  <si>
-    <t>Pray</t>
-  </si>
-  <si>
-    <t>Pray for those starving, suffering and dying in Gaza. Pray that peace could be bestowed upon their land once again and that they could be brought back to their homes safely.</t>
-  </si>
-  <si>
-    <t>https://www.islamic-relief.org.uk/giving/appeals/palestine/pray-for-palestine/#:~:text=O%20Allah%2C%20help%20and%20protect,in%20this%20time%20of%20crisis.</t>
   </si>
   <si>
     <t>"./SupportPage/Unicef-logo.jpeg",
@@ -264,10 +207,6 @@
             "./SupportPage/WFP-3.jpg",</t>
   </si>
   <si>
-    <t>"./SupportPage/RedCrossLogo.png",
-            "./SupportPage/ICRC-1.jpg",</t>
-  </si>
-  <si>
     <t>"./SupportPage/prc-logo.png",
             "./SupportPage/prc.png",</t>
   </si>
@@ -303,21 +242,6 @@
             "./SupportPage/ZFA-2.jpg",</t>
   </si>
   <si>
-    <t>./SupportPage/congress-better.webp</t>
-  </si>
-  <si>
-    <t>"./HomePage/paly.jpeg"</t>
-  </si>
-  <si>
-    <t>./SupportPage/hamas.jpeg</t>
-  </si>
-  <si>
-    <t>./SupportPage/pray.jpeg</t>
-  </si>
-  <si>
-    <t>./SupportPage/boycott.jpeg</t>
-  </si>
-  <si>
     <t>UnicefLogo.png</t>
   </si>
   <si>
@@ -325,9 +249,6 @@
   </si>
   <si>
     <t>WorldFoodProgrammeLogo.png</t>
-  </si>
-  <si>
-    <t>RedCrossLogo.png</t>
   </si>
   <si>
     <t>ZakatFoundationLogo.png</t>
@@ -352,7 +273,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -367,11 +288,6 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow (Body)"/>
     </font>
   </fonts>
   <fills count="2">
@@ -395,7 +311,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -404,9 +320,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -744,21 +657,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5978B93A-5D86-9C4F-93AD-00311E57D08A}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="88" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="213.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="87" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="75.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="139.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="222.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="91.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="143.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
@@ -782,7 +694,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="102" x14ac:dyDescent="0.2">
@@ -802,10 +714,10 @@
         <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="102" x14ac:dyDescent="0.2">
@@ -825,10 +737,10 @@
         <v>15</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -848,13 +760,13 @@
         <v>20</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
@@ -868,13 +780,13 @@
         <v>24</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>25</v>
       </c>
@@ -888,189 +800,99 @@
         <v>28</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>72</v>
+      <c r="F8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="85" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="C9" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="D9" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="85" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1081,25 +903,18 @@
     <hyperlink ref="E3" r:id="rId4" xr:uid="{8600EE1D-59F0-D340-887E-12A0E8832F15}"/>
     <hyperlink ref="D4" r:id="rId5" xr:uid="{B80A282B-C2A6-BB4C-ACC8-C537C4719A25}"/>
     <hyperlink ref="E4" r:id="rId6" xr:uid="{48F56399-9005-074B-A20E-7F9A335A1538}"/>
-    <hyperlink ref="D5" r:id="rId7" xr:uid="{57A2EFA3-E9C6-EB4B-A2B2-A087484793F1}"/>
-    <hyperlink ref="E5" r:id="rId8" xr:uid="{1CE6EF06-B6EB-AC42-B1D6-59C1DE92B705}"/>
-    <hyperlink ref="D6" r:id="rId9" xr:uid="{C5BFFCC8-CA22-8F43-B758-4F5AF410F26E}"/>
-    <hyperlink ref="E6" r:id="rId10" xr:uid="{FE6E65C0-BE3B-0949-A58D-364341E9ADCD}"/>
-    <hyperlink ref="D7" r:id="rId11" xr:uid="{92BC4F12-C6D1-A34E-A4EB-7CA42C076159}"/>
-    <hyperlink ref="E7" r:id="rId12" xr:uid="{B2EDDC48-2E18-444B-972C-E9004144E72B}"/>
-    <hyperlink ref="D9" r:id="rId13" xr:uid="{18667951-D886-D44F-8C56-328918FC7F80}"/>
-    <hyperlink ref="E9" r:id="rId14" xr:uid="{7723300E-D686-C949-8539-D3028A45B1A9}"/>
-    <hyperlink ref="D10" r:id="rId15" xr:uid="{31AFB4FA-B168-534C-A31F-D273B366FD19}"/>
-    <hyperlink ref="E10" r:id="rId16" xr:uid="{B318D30D-5611-B145-B008-0D152E8CF7A9}"/>
-    <hyperlink ref="D11" r:id="rId17" xr:uid="{B19C561F-DBD0-ED49-B4BB-D92723BC640B}"/>
-    <hyperlink ref="E11" r:id="rId18" xr:uid="{27770B3C-EB48-8943-AD7B-0F20F492B3A8}"/>
-    <hyperlink ref="D8" r:id="rId19" xr:uid="{765FC0BB-1C3E-C34C-97A0-160D2890A12C}"/>
-    <hyperlink ref="E8" r:id="rId20" xr:uid="{7056CE25-3AEA-6049-8DF1-0E2DC86D4EA9}"/>
-    <hyperlink ref="E12" r:id="rId21" xr:uid="{F76A1522-90AC-F94C-9D5E-D3067A4C2C91}"/>
-    <hyperlink ref="E13" r:id="rId22" xr:uid="{16F30E42-9423-6C44-9822-2FF35FD5831B}"/>
-    <hyperlink ref="E14" r:id="rId23" xr:uid="{7F1F4394-9AAF-7049-AAD9-290083FE0353}"/>
-    <hyperlink ref="E15" r:id="rId24" xr:uid="{2A4E9945-A1D9-F348-B07A-24631EE004BB}"/>
-    <hyperlink ref="E16" r:id="rId25" location=":~:text=O%20Allah%2C%20help%20and%20protect,in%20this%20time%20of%20crisis." xr:uid="{0580BE17-FFFD-3B4E-854D-33A19E46E4EC}"/>
+    <hyperlink ref="D5" r:id="rId7" xr:uid="{C5BFFCC8-CA22-8F43-B758-4F5AF410F26E}"/>
+    <hyperlink ref="E5" r:id="rId8" xr:uid="{FE6E65C0-BE3B-0949-A58D-364341E9ADCD}"/>
+    <hyperlink ref="D6" r:id="rId9" xr:uid="{92BC4F12-C6D1-A34E-A4EB-7CA42C076159}"/>
+    <hyperlink ref="E6" r:id="rId10" xr:uid="{B2EDDC48-2E18-444B-972C-E9004144E72B}"/>
+    <hyperlink ref="D8" r:id="rId11" xr:uid="{18667951-D886-D44F-8C56-328918FC7F80}"/>
+    <hyperlink ref="E8" r:id="rId12" xr:uid="{7723300E-D686-C949-8539-D3028A45B1A9}"/>
+    <hyperlink ref="D9" r:id="rId13" xr:uid="{31AFB4FA-B168-534C-A31F-D273B366FD19}"/>
+    <hyperlink ref="E9" r:id="rId14" xr:uid="{B318D30D-5611-B145-B008-0D152E8CF7A9}"/>
+    <hyperlink ref="D10" r:id="rId15" xr:uid="{B19C561F-DBD0-ED49-B4BB-D92723BC640B}"/>
+    <hyperlink ref="E10" r:id="rId16" xr:uid="{27770B3C-EB48-8943-AD7B-0F20F492B3A8}"/>
+    <hyperlink ref="D7" r:id="rId17" xr:uid="{765FC0BB-1C3E-C34C-97A0-160D2890A12C}"/>
+    <hyperlink ref="E7" r:id="rId18" xr:uid="{7056CE25-3AEA-6049-8DF1-0E2DC86D4EA9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/SupportPageData.xlsx
+++ b/data/SupportPageData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashrafmahmoud/Documents/ITI/9 Months/Core courses/Data Visualization/Project/Story-of-Palestine-Dashboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{666264C8-DD7B-FC40-BE27-DE07E7F99F63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEDA3CAE-9FE2-7349-9605-73D4D1E01532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{DA82F47E-9593-7045-8AD3-0C2B15578C02}"/>
   </bookViews>
@@ -659,8 +659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5978B93A-5D86-9C4F-93AD-00311E57D08A}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="88" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="88" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
